--- a/data/aggregated_single/config_auto.xlsx
+++ b/data/aggregated_single/config_auto.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>246.5725504910742</v>
+        <v>246.5725504910743</v>
       </c>
       <c r="C2" t="n">
         <v>0.1605073598496712</v>
